--- a/flipkartTesting/flip_data.xlsx
+++ b/flipkartTesting/flip_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13830" windowHeight="2520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -61,6 +62,24 @@
   </si>
   <si>
     <t>TESLA</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>Books &amp; Media</t>
+  </si>
+  <si>
+    <t>Product Subcategory</t>
+  </si>
+  <si>
+    <t>Exact Product Name</t>
+  </si>
+  <si>
+    <t>Literature &amp; Fiction</t>
+  </si>
+  <si>
+    <t>Shri Ramcharitmanas</t>
   </si>
 </sst>
 </file>
@@ -429,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -440,11 +459,13 @@
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="5" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,10 +482,19 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -481,8 +511,11 @@
         <v>13</v>
       </c>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -498,9 +531,18 @@
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -517,54 +559,75 @@
         <v>14</v>
       </c>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/flipkartTesting/flip_data.xlsx
+++ b/flipkartTesting/flip_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13830" windowHeight="2520"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14070" windowHeight="2535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <t>Literature &amp; Fiction</t>
   </si>
   <si>
-    <t>Shri Ramcharitmanas</t>
+    <t>Shrimad Bhagvadgita</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
